--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H2">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I2">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J2">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>447.0868872715062</v>
+        <v>726.6464273741525</v>
       </c>
       <c r="R2">
-        <v>4023.781985443556</v>
+        <v>6539.817846367373</v>
       </c>
       <c r="S2">
-        <v>0.01565955884845179</v>
+        <v>0.02095058912667429</v>
       </c>
       <c r="T2">
-        <v>0.01565955884845179</v>
+        <v>0.02095058912667429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H3">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I3">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J3">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>491.5561562785472</v>
+        <v>841.8467672568738</v>
       </c>
       <c r="R3">
-        <v>4424.005406506924</v>
+        <v>7576.620905311865</v>
       </c>
       <c r="S3">
-        <v>0.0172171288751936</v>
+        <v>0.02427203253740945</v>
       </c>
       <c r="T3">
-        <v>0.01721712887519359</v>
+        <v>0.02427203253740945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H4">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I4">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J4">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>272.4608348502064</v>
+        <v>638.9975065310791</v>
       </c>
       <c r="R4">
-        <v>2452.147513651857</v>
+        <v>5750.977558779712</v>
       </c>
       <c r="S4">
-        <v>0.009543148320170003</v>
+        <v>0.01842350517111785</v>
       </c>
       <c r="T4">
-        <v>0.009543148320170003</v>
+        <v>0.01842350517111785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H5">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I5">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J5">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>198.2836289918789</v>
+        <v>327.9671166056273</v>
       </c>
       <c r="R5">
-        <v>1784.55266092691</v>
+        <v>2951.704049450646</v>
       </c>
       <c r="S5">
-        <v>0.006945035171647271</v>
+        <v>0.009455911497279848</v>
       </c>
       <c r="T5">
-        <v>0.006945035171647271</v>
+        <v>0.009455911497279848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>162.069607</v>
       </c>
       <c r="I6">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J6">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>8294.129167436506</v>
+        <v>7871.220809244671</v>
       </c>
       <c r="R6">
-        <v>74647.16250692855</v>
+        <v>70840.98728320205</v>
       </c>
       <c r="S6">
-        <v>0.2905081931317248</v>
+        <v>0.2269421645623847</v>
       </c>
       <c r="T6">
-        <v>0.2905081931317248</v>
+        <v>0.2269421645623847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>162.069607</v>
       </c>
       <c r="I7">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J7">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>9119.10049096784</v>
@@ -883,10 +883,10 @@
         <v>82071.90441871056</v>
       </c>
       <c r="S7">
-        <v>0.3194034422587225</v>
+        <v>0.2629208930146553</v>
       </c>
       <c r="T7">
-        <v>0.3194034422587225</v>
+        <v>0.2629208930146553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>162.069607</v>
       </c>
       <c r="I8">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J8">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>5054.555214326504</v>
+        <v>6921.785177749294</v>
       </c>
       <c r="R8">
-        <v>45490.99692893853</v>
+        <v>62296.06659974364</v>
       </c>
       <c r="S8">
-        <v>0.1770396472921545</v>
+        <v>0.1995681418350396</v>
       </c>
       <c r="T8">
-        <v>0.1770396472921545</v>
+        <v>0.1995681418350396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>162.069607</v>
       </c>
       <c r="I9">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J9">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>3678.457314378755</v>
+        <v>3552.624076475317</v>
       </c>
       <c r="R9">
-        <v>33106.11582940879</v>
+        <v>31973.61668827786</v>
       </c>
       <c r="S9">
-        <v>0.1288407699397611</v>
+        <v>0.1024288629846123</v>
       </c>
       <c r="T9">
-        <v>0.1288407699397611</v>
+        <v>0.1024288629846123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H10">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>308.8428606695057</v>
+        <v>1329.273449360166</v>
       </c>
       <c r="R10">
-        <v>2779.585746025552</v>
+        <v>11963.46104424149</v>
       </c>
       <c r="S10">
-        <v>0.01081745649283897</v>
+        <v>0.03832546452499428</v>
       </c>
       <c r="T10">
-        <v>0.01081745649283897</v>
+        <v>0.03832546452499428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H11">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>339.5617581434009</v>
+        <v>1540.012465468367</v>
       </c>
       <c r="R11">
-        <v>3056.055823290608</v>
+        <v>13860.1121892153</v>
       </c>
       <c r="S11">
-        <v>0.01189340928064662</v>
+        <v>0.04440146844260409</v>
       </c>
       <c r="T11">
-        <v>0.01189340928064661</v>
+        <v>0.04440146844260409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H12">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>188.2130432611827</v>
+        <v>1168.934969801692</v>
       </c>
       <c r="R12">
-        <v>1693.917389350644</v>
+        <v>10520.41472821523</v>
       </c>
       <c r="S12">
-        <v>0.00659230523395968</v>
+        <v>0.03370260328205917</v>
       </c>
       <c r="T12">
-        <v>0.006592305233959679</v>
+        <v>0.03370260328205917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H13">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>136.9722193721911</v>
+        <v>599.9588850143672</v>
       </c>
       <c r="R13">
-        <v>1232.74997434972</v>
+        <v>5399.629965129305</v>
       </c>
       <c r="S13">
-        <v>0.004797556338437876</v>
+        <v>0.01729794796935204</v>
       </c>
       <c r="T13">
-        <v>0.004797556338437876</v>
+        <v>0.01729794796935204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H14">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>6.723291550722221</v>
+        <v>13.02574370702978</v>
       </c>
       <c r="R14">
-        <v>60.50962395649999</v>
+        <v>117.231693363268</v>
       </c>
       <c r="S14">
-        <v>0.0002354884088333746</v>
+        <v>0.0003755567965310159</v>
       </c>
       <c r="T14">
-        <v>0.0002354884088333746</v>
+        <v>0.0003755567965310158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H15">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>7.392020312611112</v>
+        <v>15.09080595153511</v>
       </c>
       <c r="R15">
-        <v>66.52818281350001</v>
+        <v>135.817253563816</v>
       </c>
       <c r="S15">
-        <v>0.0002589111432024368</v>
+        <v>0.0004350964419153345</v>
       </c>
       <c r="T15">
-        <v>0.0002589111432024368</v>
+        <v>0.0004350964419153344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H16">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>4.097265388458333</v>
+        <v>11.45456364463645</v>
       </c>
       <c r="R16">
-        <v>36.875388496125</v>
+        <v>103.091072801728</v>
       </c>
       <c r="S16">
-        <v>0.0001435098418114064</v>
+        <v>0.0003302567073938872</v>
       </c>
       <c r="T16">
-        <v>0.0001435098418114064</v>
+        <v>0.0003302567073938871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H17">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>2.981788742638889</v>
+        <v>5.879084303319333</v>
       </c>
       <c r="R17">
-        <v>26.83609868375</v>
+        <v>52.91175872987399</v>
       </c>
       <c r="S17">
-        <v>0.0001044394224441854</v>
+        <v>0.0001695051059770817</v>
       </c>
       <c r="T17">
-        <v>0.0001044394224441854</v>
+        <v>0.0001695051059770817</v>
       </c>
     </row>
   </sheetData>
